--- a/Data/EC/NIT-9011168479.xlsx
+++ b/Data/EC/NIT-9011168479.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC29E02-0166-4BAF-BCA1-BED68171944E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF432CC4-5FAE-4E44-8C02-048B8A7F845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09B2A3D7-DBBF-4523-BA07-F48A655947DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{95E21798-A392-49A9-B242-ECF2BB020947}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="109">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,247 +65,271 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73144576</t>
+  </si>
+  <si>
+    <t>LUIS ULISES RICO JULIO</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>73146936</t>
+  </si>
+  <si>
+    <t>WILBERTO FIGUEROA PARRA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
     <t>1047503521</t>
   </si>
   <si>
     <t>ORLANDO MIRANDA DIAZ</t>
   </si>
   <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>73146936</t>
-  </si>
-  <si>
-    <t>WILBERTO FIGUEROA PARRA</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
+    <t>9297190</t>
+  </si>
+  <si>
+    <t>PEDRO MANUEL ROMERO PEREZ</t>
+  </si>
+  <si>
+    <t>1128058269</t>
+  </si>
+  <si>
+    <t>CARLOS ENRIQUE RECUERO PEREZ</t>
   </si>
   <si>
     <t>1235040306</t>
   </si>
   <si>
     <t>TEDDY JAVIER RICO PEREZ</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -349,7 +373,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,7 +743,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3D1451-6537-55A3-F11A-40AC4F1CF082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03747D5D-17A4-043B-2D5B-6E09A410EB25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,32 +1094,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA100823-5D3A-4360-905F-CFA8E956359C}">
-  <dimension ref="B2:J98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25BF85-4CB6-43E8-AB23-039A5DFE0FA5}">
+  <dimension ref="B2:J107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1104,7 +1128,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1115,7 +1139,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1126,7 +1150,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1137,10 +1161,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1153,8 +1177,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1169,15 +1193,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2509770</v>
+        <v>2821006</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1185,27 +1209,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F13" s="5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1225,16 +1249,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1248,16 +1272,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>20979</v>
+        <v>3125</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1268,10 +1292,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>20979</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
         <v>828116</v>
@@ -1280,7 +1304,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1303,7 +1327,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1326,21 +1350,21 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F20" s="18">
-        <v>16562</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
         <v>828116</v>
@@ -1349,7 +1373,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +1396,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1419,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1418,7 +1442,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1465,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1488,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1487,7 +1511,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1510,7 +1534,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1533,7 +1557,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1580,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1579,7 +1603,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1626,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1649,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1672,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1671,7 +1695,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +1718,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1741,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1740,7 +1764,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1763,7 +1787,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1786,7 +1810,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +1833,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1832,7 +1856,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1879,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1878,7 +1902,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +1925,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1924,7 +1948,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1947,7 +1971,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1970,7 +1994,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +2017,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -2016,7 +2040,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2039,7 +2063,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2062,7 +2086,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2085,7 +2109,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2108,7 +2132,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2155,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2154,7 +2178,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2177,7 +2201,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2200,7 +2224,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2223,7 +2247,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2246,7 +2270,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2269,7 +2293,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2292,7 +2316,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2315,7 +2339,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2338,7 +2362,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2361,7 +2385,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2384,7 +2408,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2407,7 +2431,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2430,7 +2454,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2453,7 +2477,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2476,7 +2500,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2499,7 +2523,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2522,7 +2546,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2545,7 +2569,7 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2568,7 +2592,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2591,7 +2615,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2614,7 +2638,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2637,7 +2661,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2660,7 +2684,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2683,7 +2707,7 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2706,7 +2730,7 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2729,7 +2753,7 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2752,7 +2776,7 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2775,7 +2799,7 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2798,7 +2822,7 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2821,7 +2845,7 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2844,7 +2868,7 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2867,7 +2891,7 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2890,7 +2914,7 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2913,7 +2937,7 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -2936,7 +2960,7 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -2959,7 +2983,7 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -2982,57 +3006,264 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="22" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F92" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G92" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="26"/>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="32"/>
-      <c r="H97" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="32"/>
-      <c r="H98" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="F92" s="18">
+        <v>20979</v>
+      </c>
+      <c r="G92" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" s="18">
+        <v>20979</v>
+      </c>
+      <c r="G93" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G94" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G95" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G96" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G97" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G98" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G99" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G100" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" s="24">
+        <v>16562</v>
+      </c>
+      <c r="G101" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="26"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="H106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="H107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="H106:J106"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011168479.xlsx
+++ b/Data/EC/NIT-9011168479.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF432CC4-5FAE-4E44-8C02-048B8A7F845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E3C450-F378-4B5C-9EE2-29D909CB7427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{95E21798-A392-49A9-B242-ECF2BB020947}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71229518-6154-4E43-8D61-E99DB337B71A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="103">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,271 +65,253 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73144576</t>
-  </si>
-  <si>
-    <t>LUIS ULISES RICO JULIO</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
     <t>73146936</t>
   </si>
   <si>
     <t>WILBERTO FIGUEROA PARRA</t>
   </si>
   <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1047503521</t>
+  </si>
+  <si>
+    <t>ORLANDO MIRANDA DIAZ</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1235040306</t>
+  </si>
+  <si>
+    <t>TEDDY JAVIER RICO PEREZ</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1047503521</t>
-  </si>
-  <si>
-    <t>ORLANDO MIRANDA DIAZ</t>
-  </si>
-  <si>
-    <t>9297190</t>
-  </si>
-  <si>
-    <t>PEDRO MANUEL ROMERO PEREZ</t>
-  </si>
-  <si>
-    <t>1128058269</t>
-  </si>
-  <si>
-    <t>CARLOS ENRIQUE RECUERO PEREZ</t>
-  </si>
-  <si>
-    <t>1235040306</t>
-  </si>
-  <si>
-    <t>TEDDY JAVIER RICO PEREZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -373,7 +355,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,7 +410,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -441,9 +425,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -643,23 +625,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,10 +669,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,7 +725,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03747D5D-17A4-043B-2D5B-6E09A410EB25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA20EDF-CA4E-CF9C-9DD3-AA6D9353A2C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,32 +1076,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25BF85-4CB6-43E8-AB23-039A5DFE0FA5}">
-  <dimension ref="B2:J107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2F746D-1BA9-4A86-878E-01D3A71CFE47}">
+  <dimension ref="B2:J100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1128,7 +1110,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1139,7 +1121,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1150,7 +1132,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1161,10 +1143,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1177,8 +1159,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1193,15 +1175,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2821006</v>
+        <v>2576020</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1209,17 +1191,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F13" s="5">
         <v>77</v>
@@ -1229,7 +1211,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1249,16 +1231,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1272,16 +1254,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>3125</v>
+        <v>20979</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1292,10 +1274,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>20979</v>
       </c>
       <c r="G17" s="18">
         <v>828116</v>
@@ -1304,18 +1286,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1327,18 +1309,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1350,18 +1332,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1373,21 +1355,21 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>16562</v>
       </c>
       <c r="G21" s="18">
         <v>828116</v>
@@ -1396,15 +1378,15 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>19</v>
@@ -1419,15 +1401,15 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>20</v>
@@ -1442,15 +1424,15 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>21</v>
@@ -1465,15 +1447,15 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>22</v>
@@ -1488,15 +1470,15 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>23</v>
@@ -1511,15 +1493,15 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>24</v>
@@ -1534,15 +1516,15 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>25</v>
@@ -1557,15 +1539,15 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
@@ -1580,15 +1562,15 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>27</v>
@@ -1603,15 +1585,15 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>28</v>
@@ -1626,15 +1608,15 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>29</v>
@@ -1649,15 +1631,15 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>30</v>
@@ -1672,15 +1654,15 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>31</v>
@@ -1695,15 +1677,15 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>32</v>
@@ -1718,15 +1700,15 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>33</v>
@@ -1741,15 +1723,15 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>34</v>
@@ -1764,15 +1746,15 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>35</v>
@@ -1787,15 +1769,15 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>36</v>
@@ -1810,15 +1792,15 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
@@ -1833,15 +1815,15 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>38</v>
@@ -1856,15 +1838,15 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>39</v>
@@ -1879,15 +1861,15 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>40</v>
@@ -1902,15 +1884,15 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>41</v>
@@ -1925,15 +1907,15 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>42</v>
@@ -1948,15 +1930,15 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>43</v>
@@ -1971,15 +1953,15 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>44</v>
@@ -1994,15 +1976,15 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>45</v>
@@ -2017,15 +1999,15 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>46</v>
@@ -2040,15 +2022,15 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>47</v>
@@ -2063,15 +2045,15 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>48</v>
@@ -2086,15 +2068,15 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>49</v>
@@ -2109,15 +2091,15 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>50</v>
@@ -2132,15 +2114,15 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>51</v>
@@ -2155,15 +2137,15 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>52</v>
@@ -2178,15 +2160,15 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>53</v>
@@ -2201,15 +2183,15 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>54</v>
@@ -2224,15 +2206,15 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>55</v>
@@ -2247,15 +2229,15 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>56</v>
@@ -2270,15 +2252,15 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>57</v>
@@ -2293,15 +2275,15 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>58</v>
@@ -2316,15 +2298,15 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>59</v>
@@ -2339,15 +2321,15 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>60</v>
@@ -2362,15 +2344,15 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>61</v>
@@ -2385,15 +2367,15 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>62</v>
@@ -2408,15 +2390,15 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>63</v>
@@ -2431,15 +2413,15 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>64</v>
@@ -2454,15 +2436,15 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>65</v>
@@ -2477,15 +2459,15 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>66</v>
@@ -2500,15 +2482,15 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>67</v>
@@ -2523,15 +2505,15 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>68</v>
@@ -2546,15 +2528,15 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>69</v>
@@ -2569,15 +2551,15 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>70</v>
@@ -2592,15 +2574,15 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>71</v>
@@ -2615,15 +2597,15 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>72</v>
@@ -2638,15 +2620,15 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>73</v>
@@ -2661,15 +2643,15 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>74</v>
@@ -2684,15 +2666,15 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>75</v>
@@ -2707,15 +2689,15 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>76</v>
@@ -2730,15 +2712,15 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>77</v>
@@ -2753,15 +2735,15 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>78</v>
@@ -2776,15 +2758,15 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>79</v>
@@ -2799,15 +2781,15 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>80</v>
@@ -2822,15 +2804,15 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>81</v>
@@ -2845,15 +2827,15 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>82</v>
@@ -2868,15 +2850,15 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>83</v>
@@ -2891,15 +2873,15 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>84</v>
@@ -2914,15 +2896,15 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>85</v>
@@ -2937,15 +2919,15 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>86</v>
@@ -2960,15 +2942,15 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>87</v>
@@ -2983,15 +2965,15 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>88</v>
@@ -3006,21 +2988,21 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F92" s="18">
-        <v>20979</v>
+        <v>33125</v>
       </c>
       <c r="G92" s="18">
         <v>828116</v>
@@ -3029,21 +3011,21 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D93" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>89</v>
-      </c>
       <c r="F93" s="18">
-        <v>20979</v>
+        <v>33125</v>
       </c>
       <c r="G93" s="18">
         <v>828116</v>
@@ -3052,218 +3034,57 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G94" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G95" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G96" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G97" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G98" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G99" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F101" s="24">
-        <v>16562</v>
-      </c>
-      <c r="G101" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="26"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="H106" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="32"/>
-      <c r="H107" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+    <row r="94" spans="2:10">
+      <c r="B94" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G94" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="H99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="32"/>
+      <c r="H100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H99:J99"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011168479.xlsx
+++ b/Data/EC/NIT-9011168479.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E3C450-F378-4B5C-9EE2-29D909CB7427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE86E7FA-597F-4817-B051-C0D8B653D4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71229518-6154-4E43-8D61-E99DB337B71A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6E29EE60-607A-4DAB-AA66-BC38B29E9FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="104">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -355,7 +358,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,9 +413,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -425,7 +426,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -619,29 +622,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,19 +663,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,7 +734,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA20EDF-CA4E-CF9C-9DD3-AA6D9353A2C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F14256-8AF0-5477-EC67-403BCB8C3C83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,80 +1085,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2F746D-1BA9-4A86-878E-01D3A71CFE47}">
-  <dimension ref="B2:J100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA45FB6-D544-4C68-9AB3-03BF0DA13A6C}">
+  <dimension ref="B2:J101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1159,13 +1168,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011168479</v>
       </c>
@@ -1175,15 +1184,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>2576020</v>
+        <v>2609145</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1191,27 +1200,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1231,16 +1240,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1250,20 +1259,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>20979</v>
       </c>
-      <c r="G16" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="G16" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1273,20 +1282,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>20979</v>
       </c>
-      <c r="G17" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="G17" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1296,20 +1305,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G18" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="F18" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G18" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1319,20 +1328,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G19" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="F19" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G19" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1342,20 +1351,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G20" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G20" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1365,20 +1374,20 @@
       <c r="D21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>16562</v>
       </c>
-      <c r="G21" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="G21" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1388,20 +1397,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G22" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G22" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1411,20 +1420,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G23" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G23" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,20 +1443,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G24" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G24" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1457,20 +1466,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G25" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G25" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1480,20 +1489,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G26" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G26" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1503,20 +1512,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G27" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G27" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1526,20 +1535,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G28" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G28" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1549,20 +1558,20 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G29" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G29" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1572,20 +1581,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G30" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G30" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1595,20 +1604,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G31" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G31" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1618,20 +1627,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G32" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G32" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1641,20 +1650,20 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G33" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G33" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1664,20 +1673,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G34" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G34" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1687,20 +1696,20 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G35" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G35" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1710,20 +1719,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G36" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G36" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1733,20 +1742,20 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G37" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G37" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1756,20 +1765,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G38" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G38" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1779,20 +1788,20 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G39" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G39" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1802,20 +1811,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G40" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G40" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1825,20 +1834,20 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G41" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G41" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1848,20 +1857,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G42" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G42" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1871,20 +1880,20 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G43" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G43" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1894,20 +1903,20 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G44" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G44" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1917,20 +1926,20 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G45" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G45" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1940,20 +1949,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G46" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G46" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1963,20 +1972,20 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G47" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G47" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1986,20 +1995,20 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G48" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="F48" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G48" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -2009,20 +2018,20 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G49" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="F49" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G49" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2032,20 +2041,20 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G50" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="F50" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G50" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2055,20 +2064,20 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G51" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="F51" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G51" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2078,20 +2087,20 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G52" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="F52" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G52" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2101,20 +2110,20 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G53" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="F53" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G53" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2124,20 +2133,20 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F54" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G54" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="F54" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G54" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2147,20 +2156,20 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G55" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="F55" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G55" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2170,20 +2179,20 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G56" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="F56" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G56" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2193,20 +2202,20 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G57" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="F57" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G57" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2216,20 +2225,20 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G58" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="F58" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G58" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2239,20 +2248,20 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G59" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="F59" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G59" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2262,20 +2271,20 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F60" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G60" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="F60" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G60" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2285,20 +2294,20 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G61" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="F61" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G61" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2308,20 +2317,20 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F62" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G62" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="F62" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G62" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2331,20 +2340,20 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F63" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G63" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="F63" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G63" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2354,20 +2363,20 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G64" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="F64" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G64" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2377,20 +2386,20 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G65" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="F65" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G65" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2400,20 +2409,20 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F66" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G66" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="F66" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G66" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2423,20 +2432,20 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F67" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G67" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="F67" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G67" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2446,20 +2455,20 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G68" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="F68" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G68" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2469,20 +2478,20 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F69" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G69" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="F69" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G69" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2492,20 +2501,20 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G70" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="F70" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G70" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2515,20 +2524,20 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F71" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G71" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="F71" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G71" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2538,20 +2547,20 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F72" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G72" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="F72" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G72" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2561,20 +2570,20 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F73" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G73" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="F73" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G73" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2584,20 +2593,20 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F74" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G74" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="F74" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G74" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2607,20 +2616,20 @@
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F75" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G75" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10">
+      <c r="F75" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G75" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2630,20 +2639,20 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G76" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="F76" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G76" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2653,20 +2662,20 @@
       <c r="D77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F77" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G77" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="F77" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G77" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2676,20 +2685,20 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F78" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G78" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="F78" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G78" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2699,20 +2708,20 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F79" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G79" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="F79" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G79" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2722,20 +2731,20 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F80" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G80" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="F80" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G80" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2745,20 +2754,20 @@
       <c r="D81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F81" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G81" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10">
+      <c r="F81" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G81" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2768,20 +2777,20 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F82" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G82" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10">
+      <c r="F82" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G82" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2791,20 +2800,20 @@
       <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F83" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G83" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10">
+      <c r="F83" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G83" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2814,20 +2823,20 @@
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F84" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G84" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10">
+      <c r="F84" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G84" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2837,20 +2846,20 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F85" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G85" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10">
+      <c r="F85" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G85" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2860,20 +2869,20 @@
       <c r="D86" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F86" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G86" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="F86" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G86" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2883,20 +2892,20 @@
       <c r="D87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F87" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G87" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10">
+      <c r="F87" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G87" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2906,20 +2915,20 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F88" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G88" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10">
+      <c r="F88" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G88" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -2929,20 +2938,20 @@
       <c r="D89" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G89" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10">
+      <c r="F89" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G89" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -2952,20 +2961,20 @@
       <c r="D90" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F90" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G90" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10">
+      <c r="F90" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G90" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -2975,20 +2984,20 @@
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F91" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G91" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10">
+      <c r="F91" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G91" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -2998,20 +3007,20 @@
       <c r="D92" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F92" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G92" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10">
+      <c r="F92" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G92" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -3021,70 +3030,93 @@
       <c r="D93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F93" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G93" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="22" t="s">
+      <c r="F93" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G93" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F94" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G94" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" s="32"/>
-      <c r="H99" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="32"/>
+      <c r="F94" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G94" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" s="26">
+        <v>33125</v>
+      </c>
+      <c r="G95" s="26">
+        <v>828116</v>
+      </c>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="28"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="34"/>
       <c r="H100" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="34"/>
+      <c r="H101" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B101:C101"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="H101:J101"/>
     <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H99:J99"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
